--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chung Le\OneDrive - Ara Institute of Canterbury\Ara-2020\Data Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/lpc0045_arastudent_ac_nz/Documents/Ara-2020/Data Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{923096A6-8A3F-4E33-9FE9-9044F1CB6ACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{78A7B744-82C2-4BCB-B87E-6D3DEEEE3E0B}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{923096A6-8A3F-4E33-9FE9-9044F1CB6ACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{0F6AB362-FC62-46D8-8CE1-2615107547E5}"/>
   <bookViews>
-    <workbookView xWindow="7793" yWindow="3443" windowWidth="21472" windowHeight="15472" xr2:uid="{5C6059EF-3B42-45C3-A510-66A5E5930BA1}"/>
+    <workbookView xWindow="1312" yWindow="6353" windowWidth="17228" windowHeight="10732" xr2:uid="{5C6059EF-3B42-45C3-A510-66A5E5930BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="93">
   <si>
     <t>DATA DICTIONARY</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>memberID</t>
-  </si>
-  <si>
     <t>Membership</t>
   </si>
   <si>
@@ -75,30 +72,12 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Start with 3 letter of Entity Name + number start from 01.</t>
-  </si>
-  <si>
-    <t>customerID</t>
-  </si>
-  <si>
-    <t>fName</t>
-  </si>
-  <si>
-    <t>lName</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>mobile</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>creadit</t>
   </si>
   <si>
@@ -114,42 +93,12 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>orderID</t>
-  </si>
-  <si>
-    <t>branchID</t>
-  </si>
-  <si>
-    <t>productID</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>pickBranch</t>
-  </si>
-  <si>
-    <t>pickDate</t>
-  </si>
-  <si>
     <t>Sold</t>
   </si>
   <si>
-    <t>staffID</t>
-  </si>
-  <si>
-    <t>packID</t>
-  </si>
-  <si>
-    <t>orderDate</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -171,51 +120,27 @@
     <t>Staffs</t>
   </si>
   <si>
-    <t>event</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
-    <t>productName</t>
-  </si>
-  <si>
     <t>mfd</t>
   </si>
   <si>
-    <t>exp</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>branchName</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
-    <t>positionID</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>dOB</t>
   </si>
   <si>
     <t>Positions</t>
   </si>
   <si>
-    <t>jobTitle</t>
-  </si>
-  <si>
-    <t>payRate</t>
-  </si>
-  <si>
     <t>skills</t>
   </si>
   <si>
@@ -285,19 +210,106 @@
     <t>Histories</t>
   </si>
   <si>
-    <t>historyID</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
     <t>bit</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>date_exp</t>
+  </si>
+  <si>
+    <t>street_num</t>
+  </si>
+  <si>
+    <t>street_name</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>branch_id</t>
+  </si>
+  <si>
+    <t>branch_name</t>
+  </si>
+  <si>
+    <t>work_status</t>
+  </si>
+  <si>
+    <t>f_name</t>
+  </si>
+  <si>
+    <t>l_name</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>pick_branch</t>
+  </si>
+  <si>
+    <t>pick_date</t>
+  </si>
+  <si>
+    <t>staff_id</t>
+  </si>
+  <si>
+    <t>pack_id</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>position_id</t>
+  </si>
+  <si>
+    <t>history_id</t>
+  </si>
+  <si>
+    <t>job_title</t>
+  </si>
+  <si>
+    <t>pay_rate</t>
+  </si>
+  <si>
+    <t>date_start</t>
+  </si>
+  <si>
+    <t>date_end</t>
+  </si>
+  <si>
+    <t>mem_level</t>
   </si>
 </sst>
 </file>
@@ -621,15 +633,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -640,6 +643,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B6607B-D32C-4BE5-847E-77F65ABB5570}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -973,1152 +985,1108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.85">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:8" ht="45.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="28" t="s">
-        <v>11</v>
+      <c r="A5" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="29"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="26"/>
+      <c r="B7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
         <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="29"/>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5">
-        <v>35</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="29"/>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="34"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="29"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5">
-        <v>70</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="34"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="29"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5">
-        <v>50</v>
+      <c r="A10" s="26"/>
+      <c r="B10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="29"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="34"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="29"/>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5">
-        <v>10</v>
+      <c r="A12" s="26"/>
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="30"/>
-      <c r="B13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="26"/>
+      <c r="B13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="26"/>
+      <c r="B14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="11">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="36" t="s">
-        <v>14</v>
-      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="29"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="7" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="34"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="29"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="34"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="29"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="34"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="29"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="34"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="29"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="29"/>
-      <c r="B20" s="7" t="s">
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="27"/>
+      <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="13">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="13">
-        <v>10</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="11">
-        <v>10</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="36" t="s">
-        <v>14</v>
-      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="26"/>
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="29"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="34"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="29"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7">
-        <v>30</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="34"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="29"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7">
-        <v>10</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="34"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="29"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="D26" s="5">
+        <v>70</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="29"/>
-      <c r="B27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="27"/>
+      <c r="B27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="5">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="30"/>
-      <c r="B28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="35"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="14">
-        <v>10</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="36" t="s">
-        <v>42</v>
-      </c>
+      <c r="F28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="26"/>
+      <c r="B29" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="29"/>
-      <c r="B30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="15">
-        <v>10</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>41</v>
+      <c r="A30" s="26"/>
+      <c r="B30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="34"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="29"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="7">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="34"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="29"/>
+        <v>67</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="26"/>
       <c r="B32" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="34"/>
+        <v>23</v>
+      </c>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="29"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="26"/>
+      <c r="B34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="29"/>
+      <c r="B35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="26"/>
+      <c r="B37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="26"/>
+      <c r="B38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="7">
+        <v>50</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="26"/>
+      <c r="B39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="5">
-        <v>10</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="34"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="29"/>
-      <c r="B34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="8">
-        <v>10</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="29"/>
-      <c r="B36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7">
-        <v>10</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="32"/>
-      <c r="B37" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="9">
-        <v>50</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="8">
-        <v>10</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="29"/>
-      <c r="B39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="7">
-        <v>10</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="34"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="29"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="7" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="7">
-        <v>50</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="34"/>
+      <c r="G40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="31"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="29"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="D41" s="5">
+        <v>10</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="34"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G41" s="5"/>
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="29"/>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="26"/>
+      <c r="B44" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5">
+        <v>30</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="26"/>
+      <c r="B45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="5">
+        <v>10</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="31"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="26"/>
+      <c r="B46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="5">
         <v>50</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" s="34"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="29"/>
-      <c r="B43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="5">
-        <v>10</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="34"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="32"/>
-      <c r="B44" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="37"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="4">
-        <v>10</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="29"/>
-      <c r="B46" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="5">
-        <v>30</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="34"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="29"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="5">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="D47" s="7">
+        <v>20</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="34"/>
-    </row>
-    <row r="48" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="32"/>
-      <c r="B48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="37"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="8" t="s">
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="26"/>
+      <c r="B48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="7">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="31"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="29"/>
+      <c r="B49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="6">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="30"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="26"/>
+      <c r="B51" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="G51" s="5"/>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="26"/>
+      <c r="B52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="31"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="26"/>
+      <c r="B53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="7">
         <v>10</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="29"/>
-      <c r="B50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="7">
-        <v>10</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="34"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="29"/>
-      <c r="B51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="7">
-        <v>10</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="34"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="29"/>
-      <c r="B52" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="7">
-        <v>10</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="34"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="29"/>
-      <c r="B53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="7">
-        <v>35</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="34"/>
+      <c r="H53" s="31"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="29"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D54" s="7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="34"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="29"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="7" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="D55" s="7">
+        <v>20</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" s="34"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="31"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="29"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="34"/>
+      <c r="G56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="29"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="7">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="34"/>
-    </row>
-    <row r="58" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="32"/>
-      <c r="B58" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="H57" s="31"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="26"/>
+      <c r="B58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="7">
+        <v>50</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="31"/>
+    </row>
+    <row r="59" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="29"/>
+      <c r="B59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="34"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="30"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="26"/>
+      <c r="B61" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="37"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="4">
-        <v>10</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="29"/>
-      <c r="B60" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="7">
-        <v>35</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="34"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="29"/>
-      <c r="B61" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="C61" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="D61" s="7">
+        <v>20</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="34"/>
-    </row>
-    <row r="62" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="32"/>
-      <c r="B62" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="6">
+      <c r="G61" s="5"/>
+      <c r="H61" s="31"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="26"/>
+      <c r="B62" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="31"/>
+    </row>
+    <row r="63" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="29"/>
+      <c r="B63" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="6">
         <v>100</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="37"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="33"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="29"/>
-      <c r="B64" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="34"/>
+      <c r="A64" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="29"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D65" s="7"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="34"/>
-    </row>
-    <row r="66" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="32"/>
-      <c r="B66" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="6">
+        <v>37</v>
+      </c>
+      <c r="H65" s="31"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="26"/>
+      <c r="B66" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" s="31"/>
+    </row>
+    <row r="67" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="29"/>
+      <c r="B67" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="6">
         <v>100</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="17" t="s">
-        <v>64</v>
-      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2126,84 +2094,94 @@
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A72" s="18" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>82</v>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+    <row r="74" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2222,21 +2200,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D2F789DAB2D65F42A25DA42593ADDD1F" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66f61a9327cf7ec78565444f7c2b0754">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0fe31927-0c1b-47a5-957f-e9c5b802eed2" xmlns:ns4="9ed09d8f-c6f2-4852-93b8-5eea4431975c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b7f3f443503d8f43866561ad96e9910c" ns3:_="" ns4:_="">
     <xsd:import namespace="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
@@ -2439,32 +2402,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1039DAA2-FF55-4346-888C-D3925BD0511D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9ed09d8f-c6f2-4852-93b8-5eea4431975c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E17A528-8E98-4587-B504-D4A8CF325188}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E392362A-DFE9-40C4-A656-E5102B03D67A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2481,4 +2434,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E17A528-8E98-4587-B504-D4A8CF325188}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1039DAA2-FF55-4346-888C-D3925BD0511D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="9ed09d8f-c6f2-4852-93b8-5eea4431975c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>